--- a/CO - Splunk Intermediate (1).xlsx
+++ b/CO - Splunk Intermediate (1).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB94D2D-7BF3-4A1D-B443-2A082221C3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_CISCO_17_09_2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4696E3A9-6EF3-404B-A8F0-31EEAF650253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,19 +978,19 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1000,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" ht="29.25" customHeight="1">
+    <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +1010,7 @@
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1017,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="36" customHeight="1">
+    <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32.25">
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
@@ -1075,7 +1080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32.25">
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
@@ -1097,7 +1102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>30</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>33</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="32.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>38</v>
       </c>
@@ -1152,7 +1157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="16.5">
+    <row r="17" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>40</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="32.25">
+    <row r="18" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
@@ -1174,7 +1179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="32.25">
+    <row r="19" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>45</v>
       </c>
@@ -1185,7 +1190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="16.5">
+    <row r="20" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
@@ -1196,7 +1201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="16.5">
+    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1210,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="2:4" ht="32.25">
+    <row r="22" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>51</v>
       </c>
@@ -1214,7 +1219,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="2:4" ht="16.5">
+    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>53</v>
       </c>
@@ -1223,7 +1228,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="2:4" ht="16.5">
+    <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>55</v>
       </c>
@@ -1232,7 +1237,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="2:4" ht="16.5">
+    <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>57</v>
       </c>
@@ -1241,7 +1246,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="2:4" ht="32.25">
+    <row r="26" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>59</v>
       </c>
@@ -1250,7 +1255,7 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="2:4" ht="16.5">
+    <row r="27" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>60</v>
       </c>
@@ -1259,7 +1264,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="2:4" ht="16.5">
+    <row r="28" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>62</v>
       </c>
@@ -1268,7 +1273,7 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="2:4" ht="16.5">
+    <row r="29" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>64</v>
       </c>
@@ -1277,7 +1282,7 @@
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="2:4" ht="32.25">
+    <row r="30" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>66</v>
       </c>
@@ -1286,7 +1291,7 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="2:4" ht="32.25">
+    <row r="31" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>68</v>
       </c>
@@ -1295,84 +1300,84 @@
       </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="2:4" ht="32.25">
+    <row r="32" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" ht="32.25">
+    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="48.75">
+    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" ht="16.5">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="16.5">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" ht="16.5">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" ht="16.5">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" ht="16.5">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" ht="16.5">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" ht="16.5">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" ht="16.5">
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:4" ht="32.25">
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="12" t="s">
         <v>79</v>
@@ -1380,7 +1385,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="18.75">
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
@@ -1402,6 +1407,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac015f5f-37cf-480b-8f61-9f6dcabe93df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF7E30AC51BE24AB98F695D1F646B0D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="944c3efe05a27205f6f8a21900784054">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac015f5f-37cf-480b-8f61-9f6dcabe93df" xmlns:ns3="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bdc8c47fb571a171e530ebc6f1b62f9" ns2:_="" ns3:_="">
     <xsd:import namespace="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
@@ -1636,34 +1661,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac015f5f-37cf-480b-8f61-9f6dcabe93df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889D0D1E-5983-4BD8-861A-9A522ED044AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C898FD-DFB1-448F-9432-BD9DD563A099}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D83723-B2BE-4A67-8F93-1AED761E3ADF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D83723-B2BE-4A67-8F93-1AED761E3ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
+    <ds:schemaRef ds:uri="5b6e755b-8d33-4086-9b6b-a9a4d44f3067"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C898FD-DFB1-448F-9432-BD9DD563A099}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889D0D1E-5983-4BD8-861A-9A522ED044AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
+    <ds:schemaRef ds:uri="5b6e755b-8d33-4086-9b6b-a9a4d44f3067"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CO - Splunk Intermediate (1).xlsx
+++ b/CO - Splunk Intermediate (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_CISCO_17_09_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4696E3A9-6EF3-404B-A8F0-31EEAF650253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D0B74-A141-43DC-AD67-421F62658BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,12 +456,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -590,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -640,6 +652,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +1015,7 @@
     <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1025,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1009,8 +1034,9 @@
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1022,182 +1048,182 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1205,7 +1231,7 @@
       <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="7"/>
@@ -1214,7 +1240,7 @@
       <c r="B22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="7"/>
@@ -1223,16 +1249,16 @@
       <c r="B23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="26" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="7"/>
@@ -1241,7 +1267,7 @@
       <c r="B25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="26" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="7"/>
@@ -1250,7 +1276,7 @@
       <c r="B26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="7"/>
@@ -1259,7 +1285,7 @@
       <c r="B27" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="7"/>
@@ -1268,7 +1294,7 @@
       <c r="B28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="7"/>
@@ -1277,16 +1303,16 @@
       <c r="B29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="26" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="7"/>
@@ -1295,7 +1321,7 @@
       <c r="B31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="26" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="7"/>
@@ -1407,26 +1433,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac015f5f-37cf-480b-8f61-9f6dcabe93df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF7E30AC51BE24AB98F695D1F646B0D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="944c3efe05a27205f6f8a21900784054">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac015f5f-37cf-480b-8f61-9f6dcabe93df" xmlns:ns3="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bdc8c47fb571a171e530ebc6f1b62f9" ns2:_="" ns3:_="">
     <xsd:import namespace="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
@@ -1661,10 +1667,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac015f5f-37cf-480b-8f61-9f6dcabe93df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C898FD-DFB1-448F-9432-BD9DD563A099}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889D0D1E-5983-4BD8-861A-9A522ED044AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
+    <ds:schemaRef ds:uri="5b6e755b-8d33-4086-9b6b-a9a4d44f3067"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1681,20 +1718,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889D0D1E-5983-4BD8-861A-9A522ED044AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C898FD-DFB1-448F-9432-BD9DD563A099}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
-    <ds:schemaRef ds:uri="5b6e755b-8d33-4086-9b6b-a9a4d44f3067"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CO - Splunk Intermediate (1).xlsx
+++ b/CO - Splunk Intermediate (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_CISCO_17_09_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D0B74-A141-43DC-AD67-421F62658BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80AC7C0-D302-4163-A62A-7A7FE2E6FDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,18 +602,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -625,15 +619,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -653,17 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1002,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,406 +1013,406 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="16"/>
+      <c r="C45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1433,6 +1427,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac015f5f-37cf-480b-8f61-9f6dcabe93df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF7E30AC51BE24AB98F695D1F646B0D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="944c3efe05a27205f6f8a21900784054">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac015f5f-37cf-480b-8f61-9f6dcabe93df" xmlns:ns3="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bdc8c47fb571a171e530ebc6f1b62f9" ns2:_="" ns3:_="">
     <xsd:import namespace="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
@@ -1667,27 +1681,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac015f5f-37cf-480b-8f61-9f6dcabe93df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C898FD-DFB1-448F-9432-BD9DD563A099}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D83723-B2BE-4A67-8F93-1AED761E3ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
+    <ds:schemaRef ds:uri="5b6e755b-8d33-4086-9b6b-a9a4d44f3067"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889D0D1E-5983-4BD8-861A-9A522ED044AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1704,23 +1717,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D83723-B2BE-4A67-8F93-1AED761E3ADF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
-    <ds:schemaRef ds:uri="5b6e755b-8d33-4086-9b6b-a9a4d44f3067"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C898FD-DFB1-448F-9432-BD9DD563A099}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CO - Splunk Intermediate (1).xlsx
+++ b/CO - Splunk Intermediate (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_CISCO_17_09_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80AC7C0-D302-4163-A62A-7A7FE2E6FDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5F904A-CCFF-41C9-B8F2-A815E9D9CB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,6 +639,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -656,9 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,21 +1013,21 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1240,7 +1240,7 @@
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -1258,7 +1258,7 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="17" t="s">
@@ -1267,7 +1267,7 @@
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="17" t="s">
@@ -1276,7 +1276,7 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -1285,7 +1285,7 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="17" t="s">
@@ -1294,7 +1294,7 @@
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -1321,21 +1321,21 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="5"/>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="20" t="s">
         <v>79</v>
       </c>
       <c r="C43" s="6"/>
@@ -1427,26 +1427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac015f5f-37cf-480b-8f61-9f6dcabe93df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF7E30AC51BE24AB98F695D1F646B0D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="944c3efe05a27205f6f8a21900784054">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac015f5f-37cf-480b-8f61-9f6dcabe93df" xmlns:ns3="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bdc8c47fb571a171e530ebc6f1b62f9" ns2:_="" ns3:_="">
     <xsd:import namespace="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
@@ -1681,10 +1661,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac015f5f-37cf-480b-8f61-9f6dcabe93df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C898FD-DFB1-448F-9432-BD9DD563A099}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889D0D1E-5983-4BD8-861A-9A522ED044AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
+    <ds:schemaRef ds:uri="5b6e755b-8d33-4086-9b6b-a9a4d44f3067"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1701,20 +1712,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889D0D1E-5983-4BD8-861A-9A522ED044AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C898FD-DFB1-448F-9432-BD9DD563A099}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
-    <ds:schemaRef ds:uri="5b6e755b-8d33-4086-9b6b-a9a4d44f3067"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>